--- a/biology/Zoologie/Eugène_Leloup/Eugène_Leloup.xlsx
+++ b/biology/Zoologie/Eugène_Leloup/Eugène_Leloup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Leloup</t>
+          <t>Eugène_Leloup</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eugène Leloup, né le 31 décembre 1902 à Liège et mort le 31 juillet 1981 dans la même ville[1],[2], est un zoologiste, conservateur et directeur belge ayant publié plus de 250 articles portant notamment sur les cnidaires.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eugène Leloup, né le 31 décembre 1902 à Liège et mort le 31 juillet 1981 dans la même ville est un zoologiste, conservateur et directeur belge ayant publié plus de 250 articles portant notamment sur les cnidaires.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Leloup</t>
+          <t>Eugène_Leloup</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leloup fait ses études supérieures à Liège où il obtient en 1926 un doctorat en sciences naturelles[2]. Diplômé, il se lance dans une carrière de zoologiste en se spécialisant dans la malacologie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leloup fait ses études supérieures à Liège où il obtient en 1926 un doctorat en sciences naturelles. Diplômé, il se lance dans une carrière de zoologiste en se spécialisant dans la malacologie.
 De 1947 à 1967, il est directeur de l'Institut Néerlandais de Recherche maritime (en) aux Pays-Bas.
 Il occupe aussi un poste de conservateur au département des invertébrés de l'Institut royal des sciences naturelles de Belgique. De 1954 à 1958, il occupera d'ailleurs le poste de directeur par intérim de cet institut.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Leloup</t>
+          <t>Eugène_Leloup</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Acanthochites leopoldi Leloup, 1933 - synonyme de Acanthochitona leopoldi (Leloup, 1933)
 Acanthochiton (Notoplax) quincunx Leloup, 1981 - synonyme de Acanthochitona quincunx Leloup, 1981
